--- a/summary/summary.xlsx
+++ b/summary/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +574,53 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022-11-16_20-48-47</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.9346306920051575</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>./checkpoints/2022-11-16_20-48-47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>./record/2022-11-16_20-48-47</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>./log/2022-11-16_20-48-47</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>./log/2022-11-16_20-48-47/log.txt</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/summary/summary.xlsx
+++ b/summary/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28128" windowHeight="12660"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>实验时间</t>
   </si>
@@ -120,16 +120,191 @@
   <si>
     <t>./log/2022-11-16_20-48-47/log.txt</t>
   </si>
+  <si>
+    <t>2022-11-17_21-04-21</t>
+  </si>
+  <si>
+    <t>归一化
+随机切割
+随机翻转</t>
+  </si>
+  <si>
+    <t>optimizer:Adam
+size: 512
+lr: 0.0001
+show_step: 50</t>
+  </si>
+  <si>
+    <t>./checkpoints/2022-11-17_21-04-21</t>
+  </si>
+  <si>
+    <t>./record/2022-11-17_21-04-21</t>
+  </si>
+  <si>
+    <t>./log/2022-11-17_21-04-21</t>
+  </si>
+  <si>
+    <t>2022-11-18_17-41-58</t>
+  </si>
+  <si>
+    <t>optimizer:SGD
+size: 512
+bs:16
+lr: 0.005
+lr_schedure: 0.5
+lr_step: 3
+max_epoch: 30
+weight_decay: 0.0005
+momentum: 0.9
+show_step: 30</t>
+  </si>
+  <si>
+    <t>./checkpoints/2022-11-18_17-41-58</t>
+  </si>
+  <si>
+    <t>./record/2022-11-18_17-41-58</t>
+  </si>
+  <si>
+    <t>./log/2022-11-18_17-41-58</t>
+  </si>
+  <si>
+    <t>2022-11-18_22-25-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">归一化
+随机翻转
+</t>
+  </si>
+  <si>
+    <t>optimizer:SGD
+size: 512
+bs:16
+lr: 0.005
+lr_schedure: 0.5
+lr_step: 5
+max_epoch: 60
+weight_decay: 0.0005
+momentum: 0.9
+show_step: 30</t>
+  </si>
+  <si>
+    <t>./checkpoints/2022-11-18_22-25-28</t>
+  </si>
+  <si>
+    <t>./record/2022-11-18_22-25-28</t>
+  </si>
+  <si>
+    <t>./log/2022-11-18_22-25-28</t>
+  </si>
+  <si>
+    <t>2022-11-19_15-39-41</t>
+  </si>
+  <si>
+    <t>归一化
+随机翻转</t>
+  </si>
+  <si>
+    <t>pretrain_model: './pretrain_model/resnet50.pth'
+load_model: False
+seed: 7
+cuda_device: 3
+data_path: '../new_data'
+config_path: './config/config.yaml'
+summary_path: './summary/summary.xlsx'
+record_path: './record'
+log_path: './log'
+image_res_path: './image_res'
+checkpoints_path: './checkpoints'
+num_workers: 8
+batch_size: 32
+shuffle: 
+  train: True
+  test: False
+train_ratio: 0.8
+test_ratio: 0.2
+mean:
+  R: 25.34 
+  G: 25.34 
+  B: 25.34 
+std:
+  R: 51.11
+  G: 51.11
+  B: 51.11
+size: 512
+lr: 0.005
+lr_schedure: 0.5
+lr_step: 5
+max_epoch: 50
+weight_decay: 0.0005
+momentum: 0.9
+show_step: 20</t>
+  </si>
+  <si>
+    <t>./checkpoints/2022-11-19_15-39-41</t>
+  </si>
+  <si>
+    <t>./record/2022-11-19_15-39-41</t>
+  </si>
+  <si>
+    <t>./log/2022-11-19_15-39-41</t>
+  </si>
+  <si>
+    <t>2022-11-19_22-41-32</t>
+  </si>
+  <si>
+    <t>pretrain_model: ./pretrain_model/resnet50.pth
+ load_model: False
+ seed: 7
+ cuda_device: 3
+ data_path: ../new_data
+ config_path: ./config/config.yaml
+ summary_path: ./summary/summary.xlsx
+ record_path: ./record
+ log_path: ./log
+ image_res_path: ./image_res
+ checkpoints_path: ./checkpoints
+ num_workers: 8
+ batch_size: 32
+ shuffle: train: True
+ test: False
+ train_ratio: 0.8
+ test_ratio: 0.2
+ mean: R: 25.34
+ G: 25.34
+ B: 25.34
+ std: R: 51.11
+ G: 51.11
+ B: 51.11
+ size: 512
+ lr: 3.90625e-05
+ lr_schedure: 0.5
+ lr_step: 8
+ max_epoch: 60
+ weight_decay: 0.0005
+ momentum: 0.9
+ show_step: 20
+ now: 2022-11-19_22-41-32</t>
+  </si>
+  <si>
+    <t>./checkpoints/2022-11-19_22-41-32</t>
+  </si>
+  <si>
+    <t>./record/2022-11-19_22-41-32</t>
+  </si>
+  <si>
+    <t>./log/2022-11-19_22-41-32</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -754,12 +929,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1111,17 +1292,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.2222222222222" style="2" customWidth="1"/>
     <col min="6" max="6" width="39.4444444444444" style="1" customWidth="1"/>
     <col min="7" max="7" width="35" style="1" customWidth="1"/>
     <col min="8" max="8" width="46.8888888888889" style="1" customWidth="1"/>
@@ -1130,31 +1311,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1171,7 +1352,7 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1197,10 +1378,10 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1226,10 +1407,10 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1243,6 +1424,136 @@
       </c>
       <c r="I4" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="57.6" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="144" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" ht="144" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" ht="409.5" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" ht="409.5" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/summary/summary.xlsx
+++ b/summary/summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>实验时间</t>
   </si>
@@ -41,258 +41,6 @@
   </si>
   <si>
     <t>日志路径</t>
-  </si>
-  <si>
-    <t>2022-11-13_16:50:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>./checkpoints/2022-11-13_16:50:05</t>
-  </si>
-  <si>
-    <t>./record/2022-11-13_16:50:05</t>
-  </si>
-  <si>
-    <t>./log/2022-11-13_16:50:05</t>
-  </si>
-  <si>
-    <t>./log/2022-11-13_16:50:05/log.txt</t>
-  </si>
-  <si>
-    <t>2022-11-16_19-38-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bs=8
-optimizer=SGD
-size=512
-lr=0.005
-lr_schedure=0.5
-lr_step=1
-max_epoch=10
-weight_decay=0.0005
-momentum=0.9
-show_step=100</t>
-  </si>
-  <si>
-    <t>0.9067838788032532</t>
-  </si>
-  <si>
-    <t>./checkpoints/2022-11-16_19-38-45</t>
-  </si>
-  <si>
-    <t>./record/2022-11-16_19-38-45</t>
-  </si>
-  <si>
-    <t>./log/2022-11-16_19-38-45</t>
-  </si>
-  <si>
-    <t>./log/2022-11-16_19-38-45/log.txt</t>
-  </si>
-  <si>
-    <t>2022-11-16_20-48-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bs=16
-optimizer=SGD
-size=512
-lr=0.005
-lr_schedure=0.5
-lr_step=3
-max_epoch=30
-weight_decay=0.0005
-momentum=0.9
-show_step=30</t>
-  </si>
-  <si>
-    <t>0.9346306920051575</t>
-  </si>
-  <si>
-    <t>./checkpoints/2022-11-16_20-48-47</t>
-  </si>
-  <si>
-    <t>./record/2022-11-16_20-48-47</t>
-  </si>
-  <si>
-    <t>./log/2022-11-16_20-48-47</t>
-  </si>
-  <si>
-    <t>./log/2022-11-16_20-48-47/log.txt</t>
-  </si>
-  <si>
-    <t>2022-11-17_21-04-21</t>
-  </si>
-  <si>
-    <t>归一化
-随机切割
-随机翻转</t>
-  </si>
-  <si>
-    <t>optimizer:Adam
-size: 512
-lr: 0.0001
-show_step: 50</t>
-  </si>
-  <si>
-    <t>./checkpoints/2022-11-17_21-04-21</t>
-  </si>
-  <si>
-    <t>./record/2022-11-17_21-04-21</t>
-  </si>
-  <si>
-    <t>./log/2022-11-17_21-04-21</t>
-  </si>
-  <si>
-    <t>2022-11-18_17-41-58</t>
-  </si>
-  <si>
-    <t>optimizer:SGD
-size: 512
-bs:16
-lr: 0.005
-lr_schedure: 0.5
-lr_step: 3
-max_epoch: 30
-weight_decay: 0.0005
-momentum: 0.9
-show_step: 30</t>
-  </si>
-  <si>
-    <t>./checkpoints/2022-11-18_17-41-58</t>
-  </si>
-  <si>
-    <t>./record/2022-11-18_17-41-58</t>
-  </si>
-  <si>
-    <t>./log/2022-11-18_17-41-58</t>
-  </si>
-  <si>
-    <t>2022-11-18_22-25-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">归一化
-随机翻转
-</t>
-  </si>
-  <si>
-    <t>optimizer:SGD
-size: 512
-bs:16
-lr: 0.005
-lr_schedure: 0.5
-lr_step: 5
-max_epoch: 60
-weight_decay: 0.0005
-momentum: 0.9
-show_step: 30</t>
-  </si>
-  <si>
-    <t>./checkpoints/2022-11-18_22-25-28</t>
-  </si>
-  <si>
-    <t>./record/2022-11-18_22-25-28</t>
-  </si>
-  <si>
-    <t>./log/2022-11-18_22-25-28</t>
-  </si>
-  <si>
-    <t>2022-11-19_15-39-41</t>
-  </si>
-  <si>
-    <t>归一化
-随机翻转</t>
-  </si>
-  <si>
-    <t>pretrain_model: './pretrain_model/resnet50.pth'
-load_model: False
-seed: 7
-cuda_device: 3
-data_path: '../new_data'
-config_path: './config/config.yaml'
-summary_path: './summary/summary.xlsx'
-record_path: './record'
-log_path: './log'
-image_res_path: './image_res'
-checkpoints_path: './checkpoints'
-num_workers: 8
-batch_size: 32
-shuffle: 
-  train: True
-  test: False
-train_ratio: 0.8
-test_ratio: 0.2
-mean:
-  R: 25.34 
-  G: 25.34 
-  B: 25.34 
-std:
-  R: 51.11
-  G: 51.11
-  B: 51.11
-size: 512
-lr: 0.005
-lr_schedure: 0.5
-lr_step: 5
-max_epoch: 50
-weight_decay: 0.0005
-momentum: 0.9
-show_step: 20</t>
-  </si>
-  <si>
-    <t>./checkpoints/2022-11-19_15-39-41</t>
-  </si>
-  <si>
-    <t>./record/2022-11-19_15-39-41</t>
-  </si>
-  <si>
-    <t>./log/2022-11-19_15-39-41</t>
-  </si>
-  <si>
-    <t>2022-11-19_22-41-32</t>
-  </si>
-  <si>
-    <t>pretrain_model: ./pretrain_model/resnet50.pth
- load_model: False
- seed: 7
- cuda_device: 3
- data_path: ../new_data
- config_path: ./config/config.yaml
- summary_path: ./summary/summary.xlsx
- record_path: ./record
- log_path: ./log
- image_res_path: ./image_res
- checkpoints_path: ./checkpoints
- num_workers: 8
- batch_size: 32
- shuffle: train: True
- test: False
- train_ratio: 0.8
- test_ratio: 0.2
- mean: R: 25.34
- G: 25.34
- B: 25.34
- std: R: 51.11
- G: 51.11
- B: 51.11
- size: 512
- lr: 3.90625e-05
- lr_schedure: 0.5
- lr_step: 8
- max_epoch: 60
- weight_decay: 0.0005
- momentum: 0.9
- show_step: 20
- now: 2022-11-19_22-41-32</t>
-  </si>
-  <si>
-    <t>./checkpoints/2022-11-19_22-41-32</t>
-  </si>
-  <si>
-    <t>./record/2022-11-19_22-41-32</t>
-  </si>
-  <si>
-    <t>./log/2022-11-19_22-41-32</t>
   </si>
 </sst>
 </file>
@@ -1294,8 +1042,8 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1339,222 +1087,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="2" ht="123" customHeight="1"/>
+    <row r="3" ht="147" customHeight="1" spans="4:4">
+      <c r="D3" s="5"/>
     </row>
-    <row r="3" ht="147" customHeight="1" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="4" spans="4:4">
+      <c r="D4" s="5"/>
     </row>
-    <row r="4" ht="144" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="5" spans="2:4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5"/>
     </row>
-    <row r="5" ht="57.6" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="6" spans="2:4">
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5"/>
     </row>
-    <row r="6" ht="144" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="7" spans="2:4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
     </row>
-    <row r="7" ht="144" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="8" spans="2:4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5"/>
     </row>
-    <row r="8" ht="409.5" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" ht="409.5" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>56</v>
-      </c>
+    <row r="9" spans="2:4">
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
